--- a/docs/evidence/Attachment E Approach Criteria Evidence Template Mod 5 Buchanan Edwards.xlsx
+++ b/docs/evidence/Attachment E Approach Criteria Evidence Template Mod 5 Buchanan Edwards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buchananedwards2.sharepoint.com/sites/BEOffice/PD/GSA-ITS-Agile-Delivery-Services/White Glove/White Glove Updated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian Shafer\Documents\GitHub\be-safe\docs\evidence\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,22 +149,7 @@
     <t>q</t>
   </si>
   <si>
-    <t xml:space="preserve">BE utilized its standard project charter to establish Brian Shafer as the one leader of the prototype development effort. The evidence can be found here: https://github.com/buchanan-edwards/be-safe/blob/master/docs/evidence/Evidence-a.pdf </t>
-  </si>
-  <si>
     <t>BE utilized 12 labor categories to design and develop the prototype. The evidence can be found here: https://github.com/buchanan-edwards/be-safe/blob/master/docs/evidence/Evidence-b.pdf</t>
-  </si>
-  <si>
-    <t>BE focused on understanding what our target audience needed and included them throughout the design and development process. We interviewed a diverse audience of people during design and conducted multiple rounds of usability testing. The evidence can be found here:https://github.com/buchanan-edwards/be-safe/blob/master/docs/evidence/Evidence-c.pdf</t>
-  </si>
-  <si>
-    <t>BE employed a variety of “human-centered design” techniques by focusing on the needs and wants of BE Safe end users throughout the design and development process. These techniques included:
-(1) Research and Inspiration: Developing personas and conducting end user interviews and market research to identify the business requirements for BE Safe
-(2) Ideation: Sketching, wireframing and storyboarding the design using research collected
-(3) Implementation: Develop the BE Safe website prototype
-(4) Research: Conducting usability testing and include new findings and designs into the next development sprint
-Steps 2-4 were repeated as as necessary until the website was deemed ready for release by the Product Owner.
-Further evidence can be found here:https://github.com/buchanan-edwards/be-safe/blob/master/docs/evidence/Evidence-d.pdf</t>
   </si>
   <si>
     <t>BE is using the SPA over API pattern which is championed by 18F. On an internal basis, we have CSS pattern libraries in bootstrap, application framework using AngularJS, and build patterns using npm, bower, and gulp. Further evidence can be found here: https://github.com/buchanan-edwards/be-safe/blob/master/docs/evidence/Evidence-e.pdf</t>
@@ -185,9 +170,6 @@
     <t>BE deployed the prototype on Amazon Web Services and Microsoft Azure. Further evidence can be found here: https://github.com/buchanan-edwards/be-safe/blob/master/docs/evidence/Evidence-j.pdf</t>
   </si>
   <si>
-    <t>BE developers wrote unit tests for their code. Test were also run during the continuous integration process using Circle CI. Further evidence can be found here:https://github.com/buchanan-edwards/be-safe/blob/master/docs/evidence/Evidence-k.pdf</t>
-  </si>
-  <si>
     <t>BE set up continuous integration where code was committed to Github, built and tested by Circle CI and pushed to a docker container on AWS. Further information can be found here: https://github.com/buchanan-edwards/be-safe/blob/master/docs/evidence/Evidence-l.pdf</t>
   </si>
   <si>
@@ -205,6 +187,24 @@
   </si>
   <si>
     <t>BE utilized all open source software which are openly licensed and free of charge. Further evidence can be found in our License file in our Github repository and in our evidence file here: https://github.com/buchanan-edwards/be-safe/blob/master/docs/evidence/Evidence-q.pdf</t>
+  </si>
+  <si>
+    <t>BE focused on understanding what our target audience needed and included them throughout the design and development process. We interviewed a diverse audience of people during design and conducted multiple rounds of usability testing. The evidence can be found here: https://github.com/buchanan-edwards/be-safe/blob/master/docs/evidence/Evidence-c.pdf</t>
+  </si>
+  <si>
+    <t>BE employed a variety of “human-centered design” techniques by focusing on the needs and wants of BE Safe end users throughout the design and development process. These techniques included:
+(1) Research and Inspiration: Developing personas and conducting end user interviews and market research to identify the business requirements for BE Safe
+(2) Ideation: Sketching, wireframing and storyboarding the design using research collected
+(3) Implementation: Develop the BE Safe website prototype
+(4) Research: Conducting usability testing and include new findings and designs into the next development sprint
+Steps 2-4 were repeated as as necessary until the website was deemed ready for release by the Product Owner.
+Further evidence can be found here: https://github.com/buchanan-edwards/be-safe/blob/master/docs/evidence/Evidence-d.pdf</t>
+  </si>
+  <si>
+    <t>BE developers wrote unit tests for their code. Test were also run during the continuous integration process using Circle CI. Further evidence can be found here: https://github.com/buchanan-edwards/be-safe/blob/master/docs/evidence/Evidence-k.pdf</t>
+  </si>
+  <si>
+    <t>BE utilized its standard project charter to establish Brian Shafer as the one leader of the prototype development effort. The evidence can be found here:  https://github.com/buchanan-edwards/be-safe/blob/master/docs/evidence/Evidence-a.pdf</t>
   </si>
 </sst>
 </file>
@@ -10853,7 +10853,7 @@
   <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10887,7 +10887,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -10901,7 +10901,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -10915,7 +10915,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10929,7 +10929,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -10943,7 +10943,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -10957,7 +10957,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -10971,7 +10971,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -10985,7 +10985,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -10999,7 +10999,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11013,7 +11013,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -11027,7 +11027,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -11041,7 +11041,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -11055,7 +11055,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -11069,7 +11069,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -11083,7 +11083,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -11097,7 +11097,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -11111,7 +11111,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
